--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
@@ -1560,9 +1560,9 @@
     </row>
     <row r="52" ht="13.8" customHeight="1" s="6"/>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>成功</t>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A16" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D52"/>
@@ -1561,6 +1561,1007 @@
     <row r="52" ht="13.8" customHeight="1" s="6"/>
     <row r="53">
       <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
         <is>
           <t>×</t>
         </is>

--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A16" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D52"/>
@@ -1562,7 +1562,1001 @@
     <row r="53">
       <c r="B53" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>成功</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A16" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D52"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C4" s="8" t="n"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -726,7 +726,7 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C10" s="8" t="n"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C13" s="8" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C19" s="8" t="n"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C22" s="8" t="n"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C24" s="8" t="n"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C27" s="8" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C28" s="8" t="n"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C30" s="8" t="n"/>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C31" s="8" t="n"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C32" s="8" t="n"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C35" s="8" t="n"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C36" s="8" t="n"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C37" s="8" t="n"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C38" s="8" t="n"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C39" s="8" t="n"/>
@@ -2561,9 +2561,30 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>×</t>
+      <c r="B197" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50-之后变为200号.xlsx
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C41" s="8" t="n"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C42" s="8" t="n"/>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C43" s="8" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C44" s="8" t="n"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
       <c r="C47" s="8" t="n"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C49" s="8" t="n"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="C50" s="8" t="n"/>
@@ -1558,7 +1558,13 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="6"/>
+    <row r="52" ht="13.8" customHeight="1" s="6">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
     <row r="53">
       <c r="B53" s="5" t="inlineStr">
         <is>
@@ -1569,6 +1575,13 @@
     <row r="54">
       <c r="B54" s="5" t="inlineStr">
         <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
           <t>成功</t>
         </is>
       </c>
@@ -1576,7 +1589,7 @@
     <row r="56">
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1603,7 @@
     <row r="58">
       <c r="B58" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1631,7 @@
     <row r="62">
       <c r="B62" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1645,7 @@
     <row r="64">
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1680,7 @@
     <row r="69">
       <c r="B69" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1701,14 @@
     <row r="72">
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1722,7 @@
     <row r="75">
       <c r="B75" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1757,7 @@
     <row r="80">
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1792,7 @@
     <row r="85">
       <c r="B85" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1869,7 @@
     <row r="96">
       <c r="B96" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1898,28 +1911,28 @@
     <row r="102">
       <c r="B102" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -1947,14 +1960,14 @@
     <row r="109">
       <c r="B109" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1989,7 +2002,7 @@
     <row r="115">
       <c r="B115" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2016,7 @@
     <row r="117">
       <c r="B117" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2051,7 @@
     <row r="122">
       <c r="B122" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2065,7 @@
     <row r="124">
       <c r="B124" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2079,7 @@
     <row r="126">
       <c r="B126" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2093,7 @@
     <row r="128">
       <c r="B128" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2163,7 @@
     <row r="138">
       <c r="B138" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2184,7 @@
     <row r="141">
       <c r="B141" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2185,14 +2198,14 @@
     <row r="143">
       <c r="B143" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2219,7 @@
     <row r="146">
       <c r="B146" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2220,28 +2233,28 @@
     <row r="148">
       <c r="B148" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="B149" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2262,21 +2275,21 @@
     <row r="154">
       <c r="B154" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2303,7 @@
     <row r="158">
       <c r="B158" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2317,7 @@
     <row r="160">
       <c r="B160" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2359,7 @@
     <row r="166">
       <c r="B166" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -2409,14 +2422,14 @@
     <row r="175">
       <c r="B175" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="5" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>×</t>
         </is>
       </c>
     </row>
